--- a/URS/DbLayouts/L4-批次作業/AchAuthLogHistory.xlsx
+++ b/URS/DbLayouts/L4-批次作業/AchAuthLogHistory.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\SKL\DB\GenTables\L4-批次作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1532AEF9-AE74-4F77-9DF3-05BCC703C8B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="17304" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="98">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -85,110 +84,106 @@
   </si>
   <si>
     <t>StampFinishDate</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>LimitAmt</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>LastUpdateEmpNo</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>LastUpdate</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>戶號</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>額度號碼</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>扣款銀行</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>扣款帳號</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>授權方式</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>每筆扣款限額</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>建立者櫃員編號</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>建立日期時間</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>修改者櫃員編號</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>修改日期時間</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>VARCHAR2</t>
   </si>
   <si>
     <t>DECIMAL</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>NVARCHAR2</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>FacmNo</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>V</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>AuthCreateDate</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>DATE</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>AuthMeth</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>與借款人關係</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>媒體碼</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>提出日期</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>提回日期</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>刪除日期</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Index4</t>
@@ -196,123 +191,71 @@
   </si>
   <si>
     <t>PropDate</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>custNoLike</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>repayAcctLike</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>custNoEq</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>repayAcctEq</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>authCreateDateEq</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>propDateEq</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>retrDateEq</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>空白:未產生媒體
 Y:已產生媒體</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>批號</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>BatchNo</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>RepayAcct %</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CustNo %</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CustNo =</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>RepayAcct =</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PropDate &gt;= ,AND PropDate &lt;=</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>RepayAcct</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>RetrDate</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>提回並且成功之日期時間</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>核印完成日期時間</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>VARCHAR2</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>DeleteDate</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>RelAcctName</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>RelAcctBirthday</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>RelAcctGender</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>CreateDate</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>RepayBank</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>AuthCreateDate &gt;= ,AND AuthCreateDate &lt;=</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Decimald</t>
   </si>
   <si>
     <t>RelationCode</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>第三人帳戶戶名</t>
@@ -322,10 +265,6 @@
   </si>
   <si>
     <t>第三人性別</t>
-  </si>
-  <si>
-    <t>pkFacmNoFirst</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>AML回應碼</t>
@@ -336,91 +275,35 @@
   </si>
   <si>
     <t>AmlRsp</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>授權狀態</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>CustNo</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">CustNo = ,AND RepayBank = ,AND RepayAcct = ,AND FacmNo = </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>l4040ARg</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>l4040BRg</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>l4040CRg</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>MediaCode</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>媒體檔規格為X(8)</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>ProcessDate</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>CreateEmpNo</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>處理日期</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">MediaCode ! ,AND PropDate &gt;= ,AND PropDate &lt;= </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>mediaCodeEq</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>mediaCodeIsnull</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">MediaCode = ,AND PropDate &gt;= ,AND PropDate &lt;= </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">MediaCode ! ,AND AuthStatus ^i ,AND CustNo = ,AND PropDate = </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">MediaCode ! ,AND AuthStatus ^i ,AND PropDate = </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">MediaCode ! ,AND AuthStatus ^i ,AND CustNo = </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>l4040DRg</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">MediaCode ! ,AND AuthStatus ^i </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>RetrDate &gt;= ,AND RetrDate &lt;=</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>建檔日期</t>
@@ -430,40 +313,14 @@
   </si>
   <si>
     <t>Key ID</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>RelationId</t>
   </si>
   <si>
     <t>第三人身分證字號</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>AuthCreateDate Desc</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>facmNoFirst</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">CustNo = ,AND FacmNo = ,AND CreateFlag = </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>A:新增(恢復授權)
-D:取消
-Z:暫停授權</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">CustNo = ,AND RepayBank = ,AND RepayAcct = </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>repayAcctFirst</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>facmNoEq</t>
@@ -474,61 +331,20 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>facmNoBFirst</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>AuthCreateDate Desc,CreateDate Desc</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>AuthStatus</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>新增或取消記號</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>CreateFlag</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>DetailSeq</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>明細序號</t>
-  </si>
-  <si>
-    <t>該戶號、額度之授權帳號歷程序號</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>CustNo,FacmNo,DetailSeq</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ACH帳號授權記錄檔</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>facmNoCFirst</t>
-  </si>
-  <si>
-    <t>DetailSeq Desc</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">AuthCreateDate = ,AND CustNo = ,AND RepayBank = ,AND RepayAcct = ,AND CreateFlag = </t>
-  </si>
-  <si>
-    <t>AuthLogKeyFirst</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>AchAuthLogHistory</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>CdCode:AuthStatus
@@ -553,13 +369,13 @@
 H-已於他行授權扣款
 I-該用戶已死亡
 Z-未交易或匯入失敗資料</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>CdCode:AchAuthCode
 A:紙本新增
 O:舊檔轉換</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>CdCode:RelationCode
@@ -576,11 +392,11 @@
 10妹
 11姪子
 99其他</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>CdCode:Sex</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>CdCode:AmlCheckItem
@@ -589,12 +405,45 @@
 2.為凍結名單/未確定名單</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>AchAuthLogHistory</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>序號</t>
+  </si>
+  <si>
+    <t>auto</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LogNo</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>LogNo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A:新增授權
+D:取消授權
+Z.暫停授權(DeleteDate &gt; 0時，顯示用)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>刪除日期/暫停授權日期</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACH授權記錄歷史檔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="14">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -654,13 +503,6 @@
       <charset val="136"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="思源宋體"/>
-      <family val="1"/>
-      <charset val="136"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="新細明體"/>
       <family val="1"/>
@@ -673,6 +515,33 @@
       <name val="標楷體"/>
       <family val="4"/>
       <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="思源宋體"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -758,7 +627,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -816,16 +685,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -837,10 +703,28 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -858,7 +742,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -949,23 +833,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1001,23 +868,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1193,11 +1043,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -1212,25 +1062,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="29"/>
+      <c r="B1" s="34"/>
       <c r="C1" s="3" t="s">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="28"/>
-      <c r="B2" s="29"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="34"/>
       <c r="C2" s="8" t="s">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>3</v>
@@ -1240,12 +1090,12 @@
       <c r="G2" s="11"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="31"/>
+      <c r="B3" s="36"/>
       <c r="C3" s="12" t="s">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>35</v>
@@ -1255,10 +1105,10 @@
       <c r="G3" s="11"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="30"/>
+      <c r="B4" s="35"/>
       <c r="C4" s="12"/>
       <c r="D4" s="13"/>
       <c r="E4" s="10"/>
@@ -1266,30 +1116,30 @@
       <c r="G4" s="11"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="31"/>
+      <c r="B5" s="36"/>
       <c r="D5" s="13"/>
       <c r="E5" s="10"/>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="29"/>
+      <c r="B6" s="34"/>
       <c r="D6" s="13"/>
       <c r="E6" s="10"/>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="30"/>
+      <c r="B7" s="35"/>
       <c r="C7" s="3"/>
       <c r="D7" s="13"/>
       <c r="E7" s="10"/>
@@ -1297,11 +1147,11 @@
       <c r="G7" s="11"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="22"/>
+      <c r="A8" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="34"/>
+      <c r="C8" s="21"/>
       <c r="D8" s="13"/>
       <c r="E8" s="10"/>
       <c r="F8" s="11"/>
@@ -1331,514 +1181,510 @@
       </c>
     </row>
     <row r="10" spans="1:7" s="15" customFormat="1">
-      <c r="A10" s="23">
+      <c r="A10" s="27">
         <v>1</v>
       </c>
-      <c r="B10" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="C10" s="24" t="s">
+      <c r="B10" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="32"/>
+    </row>
+    <row r="11" spans="1:7" s="15" customFormat="1">
+      <c r="A11" s="22">
+        <v>2</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D11" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="26">
+      <c r="E11" s="25">
         <v>7</v>
       </c>
-      <c r="F10" s="16"/>
-      <c r="G10" s="20"/>
-    </row>
-    <row r="11" spans="1:7" s="15" customFormat="1">
-      <c r="A11" s="23">
-        <v>2</v>
-      </c>
-      <c r="B11" s="22" t="s">
+      <c r="F11" s="16"/>
+      <c r="G11" s="19"/>
+    </row>
+    <row r="12" spans="1:7" s="15" customFormat="1">
+      <c r="A12" s="22">
+        <v>3</v>
+      </c>
+      <c r="B12" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C12" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D12" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="26">
+      <c r="E12" s="25">
         <v>3</v>
       </c>
-      <c r="F11" s="16"/>
-      <c r="G11" s="20"/>
-    </row>
-    <row r="12" spans="1:7" s="15" customFormat="1">
-      <c r="A12" s="23">
+      <c r="F12" s="16"/>
+      <c r="G12" s="19"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="22">
+        <v>4</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="25">
+        <v>8</v>
+      </c>
+      <c r="G13" s="19"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="22">
+        <v>5</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="25">
         <v>3</v>
       </c>
-      <c r="B12" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="C12" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="D12" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="26">
+      <c r="G14" s="19"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="22">
         <v>6</v>
       </c>
-      <c r="F12" s="16"/>
-      <c r="G12" s="20" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="23">
-        <v>4</v>
-      </c>
-      <c r="B13" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="D13" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="E13" s="26">
-        <v>8</v>
-      </c>
-      <c r="G13" s="20"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="23">
-        <v>5</v>
-      </c>
-      <c r="B14" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="C14" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="E14" s="26">
-        <v>3</v>
-      </c>
-      <c r="G14" s="20"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="23">
-        <v>6</v>
-      </c>
-      <c r="B15" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="C15" s="24" t="s">
+      <c r="B15" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="22" t="s">
-        <v>65</v>
+      <c r="D15" s="21" t="s">
+        <v>52</v>
       </c>
       <c r="E15" s="16">
         <v>14</v>
       </c>
-      <c r="G15" s="20"/>
+      <c r="G15" s="19"/>
     </row>
     <row r="16" spans="1:7" ht="48.6">
-      <c r="A16" s="23">
+      <c r="A16" s="22">
         <v>7</v>
       </c>
-      <c r="B16" s="24" t="s">
-        <v>120</v>
-      </c>
-      <c r="C16" s="24" t="s">
-        <v>119</v>
-      </c>
-      <c r="D16" s="22" t="s">
+      <c r="B16" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="D16" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="23">
+      <c r="E16" s="22">
         <v>1</v>
       </c>
-      <c r="G16" s="21" t="s">
-        <v>111</v>
+      <c r="G16" s="20" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="23">
+      <c r="A17" s="22">
         <v>8</v>
       </c>
-      <c r="B17" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="C17" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="D17" s="25" t="s">
+      <c r="B17" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="E17" s="26">
+      <c r="D17" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="25">
         <v>8</v>
       </c>
-      <c r="G17" s="20" t="s">
-        <v>104</v>
+      <c r="G17" s="19" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="23">
+      <c r="A18" s="22">
         <v>9</v>
       </c>
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="D18" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="E18" s="26">
+      <c r="C18" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" s="25">
         <v>8</v>
       </c>
-      <c r="G18" s="20" t="s">
-        <v>63</v>
+      <c r="G18" s="19" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="356.4">
-      <c r="A19" s="23">
+      <c r="A19" s="22">
         <v>10</v>
       </c>
-      <c r="B19" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="C19" s="24" t="s">
+      <c r="B19" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="D19" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="E19" s="23">
+      <c r="C19" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" s="22">
         <v>1</v>
       </c>
-      <c r="G19" s="21" t="s">
-        <v>131</v>
+      <c r="G19" s="20" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="48.6">
-      <c r="A20" s="23">
+      <c r="A20" s="22">
         <v>11</v>
       </c>
-      <c r="B20" s="27" t="s">
+      <c r="B20" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="24" t="s">
+      <c r="C20" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="22" t="s">
+      <c r="D20" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="E20" s="23">
+      <c r="E20" s="22">
         <v>1</v>
       </c>
-      <c r="G20" s="21" t="s">
-        <v>132</v>
+      <c r="G20" s="20" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="23">
+      <c r="A21" s="22">
         <v>12</v>
       </c>
-      <c r="B21" s="27" t="s">
+      <c r="B21" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="24" t="s">
+      <c r="C21" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="25" t="s">
+      <c r="D21" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="E21" s="23">
+      <c r="E21" s="22">
         <v>8</v>
       </c>
       <c r="F21" s="16">
         <v>2</v>
       </c>
-      <c r="G21" s="20" t="s">
+      <c r="G21" s="19" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="32.4">
+      <c r="A22" s="22">
+        <v>13</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" s="22">
+        <v>1</v>
+      </c>
+      <c r="G22" s="20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="22">
+        <v>14</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" s="22">
+        <v>6</v>
+      </c>
+      <c r="G23" s="20"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="22">
+        <v>15</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="E24" s="25">
+        <v>8</v>
+      </c>
+      <c r="G24" s="19"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="22">
+        <v>16</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="E25" s="25">
+        <v>8</v>
+      </c>
+      <c r="G25" s="19"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="22">
+        <v>17</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="D26" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="E26" s="25">
+        <v>8</v>
+      </c>
+      <c r="G26" s="19"/>
+    </row>
+    <row r="27" spans="1:7" ht="226.8">
+      <c r="A27" s="22">
+        <v>18</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27" s="22">
+        <v>2</v>
+      </c>
+      <c r="G27" s="20" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="22">
+        <v>19</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="E28" s="25">
+        <v>100</v>
+      </c>
+      <c r="G28" s="19"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="22">
+        <v>20</v>
+      </c>
+      <c r="B29" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="C29" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="D29" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29" s="22">
+        <v>10</v>
+      </c>
+      <c r="G29" s="19"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="22">
+        <v>21</v>
+      </c>
+      <c r="B30" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="D30" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="E30" s="25">
+        <v>8</v>
+      </c>
+      <c r="G30" s="19"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="22">
+        <v>22</v>
+      </c>
+      <c r="B31" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="D31" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="E31" s="22">
+        <v>1</v>
+      </c>
+      <c r="G31" s="19" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="64.8">
+      <c r="A32" s="22">
+        <v>23</v>
+      </c>
+      <c r="B32" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="D32" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="E32" s="22">
+        <v>1</v>
+      </c>
+      <c r="G32" s="26" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="32.4">
-      <c r="A22" s="23">
-        <v>13</v>
-      </c>
-      <c r="B22" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="C22" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="D22" s="22" t="s">
+    <row r="33" spans="1:7">
+      <c r="A33" s="22">
+        <v>24</v>
+      </c>
+      <c r="B33" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="E22" s="23">
-        <v>1</v>
-      </c>
-      <c r="G22" s="21" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="23">
-        <v>14</v>
-      </c>
-      <c r="B23" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="C23" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="D23" s="22" t="s">
+      <c r="E33" s="25">
+        <v>6</v>
+      </c>
+      <c r="G33" s="19"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="22">
+        <v>25</v>
+      </c>
+      <c r="B34" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C34" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D34" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="E34" s="25"/>
+      <c r="G34" s="19"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="22">
+        <v>26</v>
+      </c>
+      <c r="B35" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="D35" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="E23" s="23">
+      <c r="E35" s="25">
         <v>6</v>
       </c>
-      <c r="G23" s="21"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="23">
-        <v>15</v>
-      </c>
-      <c r="B24" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="C24" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="D24" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="E24" s="26">
-        <v>8</v>
-      </c>
-      <c r="G24" s="20"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="23">
-        <v>16</v>
-      </c>
-      <c r="B25" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="C25" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="D25" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="E25" s="26">
-        <v>8</v>
-      </c>
-      <c r="G25" s="20"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="23">
-        <v>17</v>
-      </c>
-      <c r="B26" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="C26" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="D26" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="E26" s="26">
-        <v>8</v>
-      </c>
-      <c r="G26" s="20"/>
-    </row>
-    <row r="27" spans="1:7" ht="226.8">
-      <c r="A27" s="23">
-        <v>18</v>
-      </c>
-      <c r="B27" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="C27" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="D27" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="E27" s="23">
-        <v>2</v>
-      </c>
-      <c r="G27" s="21" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="23">
-        <v>19</v>
-      </c>
-      <c r="B28" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="C28" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="D28" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="E28" s="26">
-        <v>100</v>
-      </c>
-      <c r="G28" s="20"/>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="23">
+      <c r="G35" s="19"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="22">
+        <v>27</v>
+      </c>
+      <c r="B36" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="B29" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="C29" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="D29" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="E29" s="23">
-        <v>10</v>
-      </c>
-      <c r="G29" s="20"/>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="23">
-        <v>21</v>
-      </c>
-      <c r="B30" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="C30" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="D30" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="E30" s="26">
-        <v>8</v>
-      </c>
-      <c r="G30" s="20"/>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="23">
-        <v>22</v>
-      </c>
-      <c r="B31" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="C31" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="D31" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="E31" s="23">
-        <v>1</v>
-      </c>
-      <c r="G31" s="20" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="64.8">
-      <c r="A32" s="23">
-        <v>23</v>
-      </c>
-      <c r="B32" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="C32" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="D32" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="E32" s="23">
-        <v>1</v>
-      </c>
-      <c r="G32" s="27" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="23">
-        <v>24</v>
-      </c>
-      <c r="B33" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="C33" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="E33" s="26">
-        <v>6</v>
-      </c>
-      <c r="G33" s="20"/>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="23">
-        <v>25</v>
-      </c>
-      <c r="B34" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="C34" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="D34" s="25" t="s">
+      <c r="C36" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="D36" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="E34" s="26"/>
-      <c r="G34" s="20"/>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="23">
-        <v>26</v>
-      </c>
-      <c r="B35" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="C35" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="D35" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="E35" s="26">
-        <v>6</v>
-      </c>
-      <c r="G35" s="20"/>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="23">
-        <v>27</v>
-      </c>
-      <c r="B36" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="C36" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="D36" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="E36" s="26"/>
-      <c r="G36" s="20"/>
+      <c r="E36" s="25"/>
+      <c r="G36" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -1851,19 +1697,19 @@
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:B5"/>
   </mergeCells>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -1887,183 +1733,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>127</v>
+        <v>80</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/URS/DbLayouts/L4-批次作業/AchAuthLogHistory.xlsx
+++ b/URS/DbLayouts/L4-批次作業/AchAuthLogHistory.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L4-批次作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09140E41-4C17-43C9-A012-3FF2578906DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -425,24 +426,25 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>刪除日期/暫停授權日期</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACH授權記錄歷史檔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>A:新增授權
 D:取消授權
-Z.暫停授權(DeleteDate &gt; 0時，顯示用)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>刪除日期/暫停授權日期</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>ACH授權記錄歷史檔</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+Z:暫停授權
+Y:恢復授權</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="14">
     <font>
       <sz val="12"/>
@@ -742,7 +744,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -833,6 +835,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -868,6 +887,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1043,11 +1079,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -1070,7 +1106,7 @@
         <v>90</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="6"/>
@@ -1289,7 +1325,7 @@
       </c>
       <c r="G15" s="19"/>
     </row>
-    <row r="16" spans="1:7" ht="48.6">
+    <row r="16" spans="1:7" ht="64.8">
       <c r="A16" s="22">
         <v>7</v>
       </c>
@@ -1306,7 +1342,7 @@
         <v>1</v>
       </c>
       <c r="G16" s="20" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1494,7 +1530,7 @@
         <v>53</v>
       </c>
       <c r="C26" s="23" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D26" s="24" t="s">
         <v>59</v>
@@ -1704,10 +1740,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
